--- a/biology/Zoologie/Lee_McGeorge_Durrell/Lee_McGeorge_Durrell.xlsx
+++ b/biology/Zoologie/Lee_McGeorge_Durrell/Lee_McGeorge_Durrell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lee McGeorge Durrell, née le 7 septembre 1949, est une naturaliste, biologiste, auteur et présentatrice de télévision britannique. Mieux connue pour son travail au zoo de Jersey, en collaboration avec son mari, le naturaliste Gerald Durrell, le fondateur du zoo.
 </t>
